--- a/结果/SVM分类/标准差/SVM_CE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_CE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D17C56-1899-4863-99C9-141469207968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07CEED-F5F3-459C-9E9B-93490A98E8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="1236" windowWidth="19668" windowHeight="11148" tabRatio="663" firstSheet="1" activeTab="5" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="biaozhunhca_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +66,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -76,11 +103,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,6 +731,52 @@
       </c>
       <c r="K21">
         <v>0.94252899999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97624999999999995</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98325999999999991</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99274099999999998</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9906412</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96885920000000003</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96735039999999994</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9632752</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAF288C-F9B7-4DD7-9A10-7E0ED627A21E}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1066,6 +1142,52 @@
         <v>0.85897400000000002</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.87874999999999992</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88375000000000004</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92610880000000007</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93973479999999987</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9451944000000001</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83402759999999998</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82806339999999989</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82389120000000005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6AFAC-B033-4ADE-B579-A856CAB177A5}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1412,6 +1534,52 @@
       </c>
       <c r="K21">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.96624999999999994</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97124999999999984</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96465400000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97292000000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97514439999999991</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9676918000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96827380000000007</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96525699999999992</v>
       </c>
     </row>
   </sheetData>
@@ -1422,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF00BCE-01EE-4D0B-981E-3D918A8FDBAE}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1760,6 +1928,52 @@
       </c>
       <c r="K21">
         <v>0.95402299999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97125000000000006</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97249999999999992</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98206959999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98490100000000003</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98815299999999995</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95251560000000013</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95786260000000001</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95747780000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1771,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CB7DC-E0F7-4A6B-9A65-A405DF44F97F}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2017,6 +2231,52 @@
       </c>
       <c r="K21">
         <v>0.972603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97125000000000006</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97838899999999995</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97739980000000004</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97742799999999996</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95817779999999997</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94378080000000009</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96532759999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2027,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2275,8 +2535,261 @@
         <v>0.92405099999999996</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.93875000000000008</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93250000000000011</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96201860000000006</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96534900000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95992239999999995</v>
+      </c>
+      <c r="H22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91556859999999995</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90166420000000014</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92002020000000007</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A558964-01C6-4722-BDDB-C153D6DC64B4}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99.375</v>
+      </c>
+      <c r="B2">
+        <v>98.648600000000002</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99.375</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>98.611099999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98.75</v>
+      </c>
+      <c r="B6">
+        <v>98.666700000000006</v>
+      </c>
+      <c r="C6">
+        <v>98.823499999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.75</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>97.435900000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>98.125</v>
+      </c>
+      <c r="B10">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C10">
+        <v>98.734200000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.75</v>
+      </c>
+      <c r="B15">
+        <v>98.7179</v>
+      </c>
+      <c r="C15">
+        <v>98.780500000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>98.75</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>97.435900000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>98.125</v>
+      </c>
+      <c r="B21">
+        <v>97.647099999999995</v>
+      </c>
+      <c r="C21">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.75</v>
+      </c>
+      <c r="B23">
+        <v>98.7179</v>
+      </c>
+      <c r="C23">
+        <v>98.780500000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99.375</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>98.684200000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>98.125</v>
+      </c>
+      <c r="B30">
+        <v>96.923100000000005</v>
+      </c>
+      <c r="C30">
+        <v>98.947400000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.125</v>
+      </c>
+      <c r="B32">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C32">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>99.375</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>99.375</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>98.591499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>98.875</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>98.960879999999989</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>98.730620000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/结果/SVM分类/标准差/SVM_CE_biaozhuncha.xlsx
+++ b/结果/SVM分类/标准差/SVM_CE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07CEED-F5F3-459C-9E9B-93490A98E8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BD1D01-1F91-4293-BCB2-E2645F21AA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="663" firstSheet="1" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
+    <workbookView xWindow="1596" yWindow="0" windowWidth="21276" windowHeight="12360" tabRatio="663" firstSheet="2" activeTab="6" xr2:uid="{A30C5435-30B2-4349-98DE-ADF2EDEF8D38}"/>
   </bookViews>
   <sheets>
     <sheet name="biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12998AB6-9737-4B74-B63D-F322F7BD0B91}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -777,6 +777,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.9632752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.97791666666666666</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.98888073333333326</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.96649493333333325</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAF288C-F9B7-4DD7-9A10-7E0ED627A21E}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1202,20 @@
         <v>0.82389120000000005</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.9370126666666666</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.82866073333333323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6AFAC-B033-4ADE-B579-A856CAB177A5}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1580,6 +1608,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.96525699999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.96916666666666662</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.97090613333333342</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.96707419999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1590,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF00BCE-01EE-4D0B-981E-3D918A8FDBAE}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1974,6 +2016,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.95747780000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.97041666666666659</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.98504119999999995</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.95595200000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1985,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9CB7DC-E0F7-4A6B-9A65-A405DF44F97F}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2277,6 +2333,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.96532759999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.96625000000000005</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.97773893333333339</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.95576206666666652</v>
       </c>
     </row>
   </sheetData>
@@ -2287,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562541EA-C098-4C43-AD2B-A4221380579C}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2579,6 +2649,20 @@
       <c r="K22" s="2">
         <f t="shared" si="0"/>
         <v>0.92002020000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.93708333333333338</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.96243000000000001</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.91241766666666679</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A558964-01C6-4722-BDDB-C153D6DC64B4}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
